--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail10 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="17" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="17" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>2.880225753371404e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.776202343229337</v>
+        <v>1.789510215314789e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.908238054193623</v>
+        <v>3.7590512326804e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.789510215314789e-08</v>
+        <v>-0.1036487763398269</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.7590512326804e-07</v>
+        <v>0.2578389269025039</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1036487763398269</v>
+        <v>0.07703897998865193</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2578389269025039</v>
+        <v>1.918293680881245</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07703897998865193</v>
+        <v>4.831552823629826</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.949964559391623</v>
+        <v>7.950183123668388</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.831552823629826</v>
+        <v>1.059468381060733e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.950183123668388</v>
+        <v>309315840336.441</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.059468381060733e-19</v>
+        <v>3.868816123718662e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>309315840336.441</v>
+        <v>10136.60031007057</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.868816123718662e-10</v>
+        <v>2.461770366584389e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10136.60031007057</v>
+        <v>8.076109534425777</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.461770366584389e-06</v>
+        <v>1.800010616669438</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.076109534425777</v>
+        <v>0.0001605653908065845</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.800010616669438</v>
+        <v>9.080726295733676</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001605653908065845</v>
+        <v>0.9631819432366328</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>9.080726295733676</v>
+        <v>0.6187313064707747</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9631819432366328</v>
+        <v>706</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6187313064707747</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.99023367208859</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>2.29048417843431e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.353305216770136</v>
+        <v>1.368821311308577e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.670651712596587</v>
+        <v>3.756437510671448e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.368821311308577e-08</v>
+        <v>-0.09969162966751648</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.756437510671448e-07</v>
+        <v>0.2339166829794075</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09969162966751648</v>
+        <v>0.06449633198180928</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2339166829794075</v>
+        <v>1.917863045842162</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06449633198180928</v>
+        <v>4.034754150025378</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.952037673711057</v>
+        <v>7.789047847645637</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.034754150025378</v>
+        <v>1.103757127971913e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.789047847645637</v>
+        <v>303085582743.0961</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.103757127971913e-19</v>
+        <v>3.940899569324035e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>303085582743.0961</v>
+        <v>10139.20905593491</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.940899569324035e-10</v>
+        <v>2.147065007343762e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10139.20905593491</v>
+        <v>6.570345373982292</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.147065007343762e-06</v>
+        <v>2.023061745939462</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.570345373982292</v>
+        <v>9.268759043235012e-05</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.023061745939462</v>
+        <v>9.07681048813488</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>9.268759043235012e-05</v>
+        <v>0.9628317648019764</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.07681048813488</v>
+        <v>0.6358071711936264</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9628317648019764</v>
+        <v>698</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6358071711936264</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>698</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>20.77150876410965</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>1.883476729368663e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.88534736080344</v>
+        <v>1.060222123475572e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.325250822777423</v>
+        <v>3.75442665040596e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.060222123475572e-08</v>
+        <v>-0.09389456688473385</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.75442665040596e-07</v>
+        <v>0.2036803435152805</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09389456688473385</v>
+        <v>0.05017656683133866</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2036803435152805</v>
+        <v>1.913283785886644</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05017656683133866</v>
+        <v>4.091913128390705</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.95009835729114</v>
+        <v>8.172131031858708</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.091913128390705</v>
+        <v>1.142419811028926e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.172131031858708</v>
+        <v>293495359459.1318</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.142419811028926e-19</v>
+        <v>4.08055804515816e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>293495359459.1318</v>
+        <v>9840.750104251079</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.08055804515816e-10</v>
+        <v>2.311192924091441e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9840.750104251079</v>
+        <v>6.386084994406937</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.311192924091441e-06</v>
+        <v>2.03047450930603</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.386084994406937</v>
+        <v>9.425525832146063e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.03047450930603</v>
+        <v>9.044316071761909</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>9.425525832146063e-05</v>
+        <v>0.9617134414364397</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>9.044316071761909</v>
+        <v>0.6775998918131965</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9617134414364397</v>
+        <v>679</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6775998918131965</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>679</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>20.56365806900554</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>1.60788835900358e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.450804500734975</v>
+        <v>8.360786570351113e-09</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.293030784120819</v>
+        <v>3.75285655791501e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.360786570351113e-09</v>
+        <v>-0.08673053892785527</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.75285655791501e-07</v>
+        <v>0.1689948882932012</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08673053892785527</v>
+        <v>0.03599132243077494</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1689948882932012</v>
+        <v>1.909734336018301</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03599132243077494</v>
+        <v>3.88885771015525</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.947468169603162</v>
+        <v>7.988850349646395</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.88885771015525</v>
+        <v>1.195440037282359e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.988850349646395</v>
+        <v>284520559384.2377</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.195440037282359e-19</v>
+        <v>4.210202670133408e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>284520559384.2377</v>
+        <v>9677.320058673486</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.210202670133408e-10</v>
+        <v>2.915895581790014e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9677.320058673486</v>
+        <v>7.465860228269463</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.915895581790014e-06</v>
+        <v>1.82940008417225</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.465860228269463</v>
+        <v>0.0001625293048787248</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.82940008417225</v>
+        <v>8.971402780544015</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001625293048787248</v>
+        <v>0.9611986022061005</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.971402780544015</v>
+        <v>0.6683171954199338</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9611986022061005</v>
+        <v>680</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6683171954199338</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>680</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>20.2255327562481</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>1.423651805306228e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.115124366367423</v>
+        <v>6.758768504180341e-09</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8418609457219026</v>
+        <v>3.75160423869578e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.758768504180341e-09</v>
+        <v>-0.07917742934748598</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.75160423869578e-07</v>
+        <v>0.1339902992393933</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07917742934748598</v>
+        <v>0.02416405118545928</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1339902992393933</v>
+        <v>1.90648754121974</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02416405118545928</v>
+        <v>4.595152570452588</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.941779029076457</v>
+        <v>8.062196049410421</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.595152570452588</v>
+        <v>1.173787983655839e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.062196049410421</v>
+        <v>285074612136.6769</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.173787983655839e-19</v>
+        <v>4.201654765992835e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>285074612136.6769</v>
+        <v>9539.085543968491</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.201654765992835e-10</v>
+        <v>3.3915214152558e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9539.085543968491</v>
+        <v>8.012012572226599</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.3915214152558e-06</v>
+        <v>1.752213863160435</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.012012572226599</v>
+        <v>0.0002177097143146676</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.752213863160435</v>
+        <v>8.89449572284623</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0002177097143146676</v>
+        <v>0.9610568605545801</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.89449572284623</v>
+        <v>0.6846206595001075</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9610568605545801</v>
+        <v>679</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6846206595001075</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>679</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>19.94273945345422</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>1.299821218996e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8955355854449185</v>
+        <v>5.630244498689764e-09</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.04324531865183712</v>
+        <v>3.750577422582739e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.630244498689764e-09</v>
+        <v>-0.07223206999187037</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.750577422582739e-07</v>
+        <v>0.1033921436918791</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07223206999187037</v>
+        <v>0.01587267635816499</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1033921436918791</v>
+        <v>1.914970533274911</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01587267635816499</v>
+        <v>4.680383836025618</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.947189857344652</v>
+        <v>8.067585339757738</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.680383836025618</v>
+        <v>1.172220284999487e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.067585339757738</v>
+        <v>286945069594.8548</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.172220284999487e-19</v>
+        <v>4.179105352274442e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>286945069594.8548</v>
+        <v>9651.765602493078</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.179105352274442e-10</v>
+        <v>3.549710376654342e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9651.765602493078</v>
+        <v>7.805799116241391</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.549710376654342e-06</v>
+        <v>1.772437293685819</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.805799116241391</v>
+        <v>0.0002162856275478407</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.772437293685819</v>
+        <v>8.857709692104462</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0002162856275478407</v>
+        <v>0.9618238334164281</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.857709692104462</v>
+        <v>0.6889020364327122</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9618238334164281</v>
+        <v>696</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6889020364327122</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>696</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>19.55462068012373</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>1.214475226358133e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7730583266901477</v>
+        <v>4.820763597565837e-09</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5204744622215922</v>
+        <v>3.749709936118727e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.820763597565837e-09</v>
+        <v>-0.06618655113025271</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.749709936118727e-07</v>
+        <v>0.07798927190032141</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06618655113025271</v>
+        <v>0.01044189628148554</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07798927190032141</v>
+        <v>1.918338274194709</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01044189628148554</v>
+        <v>4.649766809365671</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948579852781278</v>
+        <v>8.26659044193838</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>4.649766809365671</v>
+        <v>1.116460919201804e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.26659044193838</v>
+        <v>296592516882.1364</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.116460919201804e-19</v>
+        <v>4.052059967780804e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>296592516882.1364</v>
+        <v>9821.185284988489</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.052059967780804e-10</v>
+        <v>3.345180464572386e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9821.185284988489</v>
+        <v>6.993091869036965</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.345180464572386e-06</v>
+        <v>1.840479623517584</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.993091869036965</v>
+        <v>0.0001635904771772441</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.840479623517584</v>
+        <v>8.860491262385729</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001635904771772441</v>
+        <v>0.9615269184345084</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.860491262385729</v>
+        <v>0.6813258269258587</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9615269184345084</v>
+        <v>704</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6813258269258587</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>704</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>19.29627582550749</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>1.153800040827775e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7222181885267022</v>
+        <v>4.227386741845828e-09</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7306849496111822</v>
+        <v>3.748958432415854e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.227386741845828e-09</v>
+        <v>-0.06108579139457513</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.748958432415854e-07</v>
+        <v>0.05743623309723662</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06108579139457513</v>
+        <v>0.007018086023549155</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.05743623309723662</v>
+        <v>1.913202365993602</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007018086023549155</v>
+        <v>4.583680090821199</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.947928651957187</v>
+        <v>8.605070421134453</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>4.583680090821199</v>
+        <v>1.067922816134971e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.605070421134453</v>
+        <v>299806499050.0296</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.067922816134971e-19</v>
+        <v>3.971212006269325e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>299806499050.0296</v>
+        <v>9598.910699032278</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.971212006269325e-10</v>
+        <v>3.316455544991574e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>9598.910699032278</v>
+        <v>7.017080936501365</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.316455544991574e-06</v>
+        <v>1.844245683714316</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.017080936501365</v>
+        <v>0.0001633003636403537</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.844245683714316</v>
+        <v>8.858238398081433</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0001633003636403537</v>
+        <v>0.9615485473497732</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.858238398081433</v>
+        <v>0.6707618411279959</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9615485473497732</v>
+        <v>705</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6707618411279959</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>705</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>19.23660267973725</v>
       </c>
     </row>
@@ -5350,7 +5290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411990354599571</v>
+        <v>1.422051839080528</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.782080237117952</v>
@@ -5439,7 +5379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.390793110157712</v>
+        <v>1.405639416271325</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.76502502081889</v>
@@ -5528,7 +5468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.399969175327734</v>
+        <v>1.419649394369367</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.513605775230739</v>
@@ -5617,7 +5557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40158363501185</v>
+        <v>1.421820199282277</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.384298656281663</v>
@@ -5706,7 +5646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.424087335178785</v>
+        <v>1.443130098080879</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.702181231968917</v>
@@ -5795,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.413033607961139</v>
+        <v>1.425987149375828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.733478332454366</v>
@@ -5884,7 +5824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.418652999899464</v>
+        <v>1.431262488174187</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.677889039351457</v>
@@ -5973,7 +5913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.41678448703561</v>
+        <v>1.431767107825165</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.553289150666665</v>
@@ -6062,7 +6002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.424277463386474</v>
+        <v>1.437084128443197</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.551916812438829</v>
@@ -6151,7 +6091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.41934453930216</v>
+        <v>1.433232173254865</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.361846613392969</v>
@@ -6240,7 +6180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.396625606639334</v>
+        <v>1.413180400703118</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.598259778273782</v>
@@ -6329,7 +6269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.419803420625457</v>
+        <v>1.438713847619139</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.214159010219889</v>
@@ -6418,7 +6358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463141104035198</v>
+        <v>1.479819691070873</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.668319705187738</v>
@@ -6507,7 +6447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.459633952559019</v>
+        <v>1.474662531280227</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.607204972038028</v>
@@ -6596,7 +6536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.475875293593377</v>
+        <v>1.489542708292648</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.468863160754645</v>
@@ -6685,7 +6625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485537623580634</v>
+        <v>1.495095651142459</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.15504617985188</v>
@@ -6774,7 +6714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508905700774823</v>
+        <v>1.518260380981366</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.396266695854788</v>
@@ -6863,7 +6803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.482915179667234</v>
+        <v>1.491669649921476</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.571553763071078</v>
@@ -6952,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.503192202115817</v>
+        <v>1.50838872533942</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.525743251407623</v>
@@ -7041,7 +6981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.508625097016493</v>
+        <v>1.513396909956719</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.471444400542591</v>
@@ -7130,7 +7070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.500455999969086</v>
+        <v>1.498953255560513</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.357904062410849</v>
@@ -7219,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.496723356235516</v>
+        <v>1.500382439629615</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.498342450731756</v>
@@ -7308,7 +7248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.460499484622554</v>
+        <v>1.462208474284362</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.527788774278114</v>
@@ -7397,7 +7337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.4437287009883</v>
+        <v>1.448207436413085</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.492627994227844</v>
@@ -7486,7 +7426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.439701789972254</v>
+        <v>1.438734476220412</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.502396696447253</v>
@@ -7575,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.438547969413776</v>
+        <v>1.43837320761337</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.458823738108535</v>
@@ -7664,7 +7604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.40799085518292</v>
+        <v>1.402337537136024</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.412893189139898</v>
@@ -7753,7 +7693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.372666528483005</v>
+        <v>1.368438697221282</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.486523860640372</v>
@@ -7842,7 +7782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.362983844910022</v>
+        <v>1.359928722728952</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.401910357540871</v>
@@ -7931,7 +7871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.36778990142517</v>
+        <v>1.365071965030565</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.493981896104038</v>
@@ -8020,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.335436060192068</v>
+        <v>1.328929438195223</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.122025673203691</v>
@@ -8109,7 +8049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.311181415920053</v>
+        <v>1.305380907541976</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.086174401797059</v>
@@ -8198,7 +8138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.314580840733293</v>
+        <v>1.307992229217736</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.160262290357929</v>
@@ -8287,7 +8227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.312278983037467</v>
+        <v>1.306430218766005</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.180475125066846</v>
@@ -8376,7 +8316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.289672825034145</v>
+        <v>1.282514335210736</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.123395700366337</v>
@@ -8465,7 +8405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.272498603047925</v>
+        <v>1.261161606357968</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.082161622920901</v>
@@ -8554,7 +8494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.267578825256234</v>
+        <v>1.257509561753441</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.090083348053772</v>
@@ -8643,7 +8583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.277103624965185</v>
+        <v>1.267328352389171</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.106870120571676</v>
@@ -8732,7 +8672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.272039077744209</v>
+        <v>1.259326673422358</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.128945823857554</v>
@@ -8821,7 +8761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.287544602957863</v>
+        <v>1.276596374778006</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.957789280349404</v>
@@ -8910,7 +8850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.299616426195604</v>
+        <v>1.289170175681605</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.083866592566918</v>
@@ -8999,7 +8939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.307027008323852</v>
+        <v>1.292475538074606</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.12645264044407</v>
@@ -9088,7 +9028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.315692623701662</v>
+        <v>1.300721793827517</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.108657297937163</v>
@@ -9177,7 +9117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.32572361009211</v>
+        <v>1.307932417043356</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.118190668263608</v>
@@ -9266,7 +9206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.324339842009775</v>
+        <v>1.307815610593978</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.075287089482326</v>
@@ -9355,7 +9295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.365192208736033</v>
+        <v>1.344856835633399</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.271944210167124</v>
@@ -9444,7 +9384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.376395271653745</v>
+        <v>1.361909450466817</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.113005882969771</v>
@@ -9533,7 +9473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.392808283384806</v>
+        <v>1.377232136517225</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.131550603432982</v>
@@ -9622,7 +9562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.392273281296651</v>
+        <v>1.375629202228531</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.308860992905849</v>
@@ -9711,7 +9651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.402823986841041</v>
+        <v>1.387970440740595</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.107561592636018</v>
@@ -9800,7 +9740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.435501992957753</v>
+        <v>1.422961168463793</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.182049593608884</v>
@@ -9889,7 +9829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.417784031827353</v>
+        <v>1.404392024070526</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.230114892341697</v>
@@ -9978,7 +9918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.441804877023688</v>
+        <v>1.429538606300902</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.078857207642417</v>
@@ -10264,7 +10204,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.478059895462297</v>
+        <v>1.491585108790608</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.10242179640562</v>
@@ -10353,7 +10293,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.475003049781578</v>
+        <v>1.488775154119222</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.088780699044375</v>
@@ -10442,7 +10382,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482100354870523</v>
+        <v>1.501137803450511</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.112040275391669</v>
@@ -10531,7 +10471,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477271162232397</v>
+        <v>1.499071455908978</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.15971116432294</v>
@@ -10620,7 +10560,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.48782578009414</v>
+        <v>1.508843284833126</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.025799796086372</v>
@@ -10709,7 +10649,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517884268041313</v>
+        <v>1.534327207862169</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.102624204056101</v>
@@ -10798,7 +10738,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.530141390718438</v>
+        <v>1.538703702513875</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.030847331571378</v>
@@ -10887,7 +10827,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.519547614471183</v>
+        <v>1.527963622384493</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.059618065058083</v>
@@ -10976,7 +10916,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524538536176669</v>
+        <v>1.530773719254582</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.069737034392393</v>
@@ -11065,7 +11005,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.573072547986255</v>
+        <v>1.572657352695949</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.305057500200792</v>
@@ -11154,7 +11094,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567485716222274</v>
+        <v>1.574861086835069</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.168005219554579</v>
@@ -11243,7 +11183,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.579156506252084</v>
+        <v>1.582002174077396</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.146694399246377</v>
@@ -11332,7 +11272,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597014516175573</v>
+        <v>1.591807345209561</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.695124343413824</v>
@@ -11421,7 +11361,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613558887478583</v>
+        <v>1.610180699123075</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.175788642535458</v>
@@ -11510,7 +11450,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.611696623131557</v>
+        <v>1.611277526544652</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.864610182803618</v>
@@ -11599,7 +11539,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606617689336915</v>
+        <v>1.605582545193954</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.872619670618649</v>
@@ -11688,7 +11628,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.617870834844325</v>
+        <v>1.616708097134715</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.114220261105416</v>
@@ -11777,7 +11717,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.612758614439834</v>
+        <v>1.613334350852695</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.110120357913271</v>
@@ -11866,7 +11806,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.620791777685043</v>
+        <v>1.621220434731798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.081157273897834</v>
@@ -11955,7 +11895,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.603123330020103</v>
+        <v>1.607373992294337</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.01473478712112</v>
@@ -12044,7 +11984,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595031232243708</v>
+        <v>1.602616329853195</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.018386973506418</v>
@@ -12133,7 +12073,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594378947333033</v>
+        <v>1.600179459619287</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.181354239703273</v>
@@ -12222,7 +12162,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589388633678017</v>
+        <v>1.592570992399054</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.132241505069858</v>
@@ -12311,7 +12251,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590550348890937</v>
+        <v>1.592096959156851</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.754359775681425</v>
@@ -12400,7 +12340,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.59312496687026</v>
+        <v>1.593431450913246</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.850368723617753</v>
@@ -12489,7 +12429,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602615445895832</v>
+        <v>1.597256228695145</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.136898036503791</v>
@@ -12578,7 +12518,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589168890236658</v>
+        <v>1.583067591565577</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.139607135543184</v>
@@ -12667,7 +12607,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.58693436381386</v>
+        <v>1.584938201116512</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.246279094899853</v>
@@ -12756,7 +12696,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584857738363742</v>
+        <v>1.584835696124643</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.24707943937828</v>
@@ -12845,7 +12785,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584260680629279</v>
+        <v>1.582994444880601</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.194225543863397</v>
@@ -12934,7 +12874,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.555415900013489</v>
+        <v>1.550618322525068</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.974509507857888</v>
@@ -13023,7 +12963,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.542018624488022</v>
+        <v>1.53870580097118</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.014996705389944</v>
@@ -13112,7 +13052,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526022189877353</v>
+        <v>1.523799383177063</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.02427905679497</v>
@@ -13201,7 +13141,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.527089896706679</v>
+        <v>1.524164182873803</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.835955678097231</v>
@@ -13290,7 +13230,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.524271598560237</v>
+        <v>1.515435571379437</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.871018302872165</v>
@@ -13379,7 +13319,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.501200227112126</v>
+        <v>1.488892906406237</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.797499698250054</v>
@@ -13468,7 +13408,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.486550012659337</v>
+        <v>1.475242197444572</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.860442679009445</v>
@@ -13557,7 +13497,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.494940039000408</v>
+        <v>1.481334139266218</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.880662266790051</v>
@@ -13646,7 +13586,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.488129248797664</v>
+        <v>1.476396443542652</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.021113767353923</v>
@@ -13735,7 +13675,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.484823785841194</v>
+        <v>1.467699475518692</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.844955500332712</v>
@@ -13824,7 +13764,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.488740337896223</v>
+        <v>1.472361128624071</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.939616991250803</v>
@@ -13913,7 +13853,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488957186669863</v>
+        <v>1.471391895915902</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.716212281423345</v>
@@ -14002,7 +13942,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.481553506809261</v>
+        <v>1.464066120878334</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.99100058655958</v>
@@ -14091,7 +14031,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.481947685602208</v>
+        <v>1.462708464025789</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.755898367689479</v>
@@ -14180,7 +14120,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.491682664074227</v>
+        <v>1.468356196177844</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.410021446019695</v>
@@ -14269,7 +14209,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.530063492186122</v>
+        <v>1.507167735303895</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.212613923710752</v>
@@ -14358,7 +14298,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.526812734807279</v>
+        <v>1.506568838287694</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.078830996104444</v>
@@ -14447,7 +14387,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.543579826325768</v>
+        <v>1.519076378262761</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.021786685551219</v>
@@ -14536,7 +14476,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.5284228709968</v>
+        <v>1.505684757020756</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.170169991990945</v>
@@ -14625,7 +14565,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.529344078121211</v>
+        <v>1.512485568028589</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.843398527955054</v>
@@ -14714,7 +14654,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.546366241634607</v>
+        <v>1.528517089501529</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.914640484106128</v>
@@ -14803,7 +14743,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.541911284062753</v>
+        <v>1.525997634408876</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.130863755036011</v>
@@ -14892,7 +14832,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.539222242593973</v>
+        <v>1.529392075875531</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.803265739061226</v>
@@ -15178,7 +15118,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.677806256993394</v>
+        <v>1.669211754270511</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.029190916975253</v>
@@ -15267,7 +15207,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.680132017027596</v>
+        <v>1.677578969815038</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.988383705662882</v>
@@ -15356,7 +15296,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.685876010131287</v>
+        <v>1.690961595462855</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.995769742994347</v>
@@ -15445,7 +15385,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.70063295203425</v>
+        <v>1.700489946290693</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.745390350597776</v>
@@ -15534,7 +15474,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.706286347457225</v>
+        <v>1.703390326638041</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.850260291212244</v>
@@ -15623,7 +15563,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.690532807508858</v>
+        <v>1.683581165395865</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.727806126900826</v>
@@ -15712,7 +15652,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.674099573089498</v>
+        <v>1.667253765360671</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.725039444925255</v>
@@ -15801,7 +15741,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685473212087008</v>
+        <v>1.682865837654516</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.758348081127072</v>
@@ -15890,7 +15830,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.682161683915326</v>
+        <v>1.670301767001357</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.171989938600185</v>
@@ -15979,7 +15919,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690070301395933</v>
+        <v>1.674454888772122</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.13309136373755</v>
@@ -16068,7 +16008,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.694432119248603</v>
+        <v>1.671373493576586</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.195794991972483</v>
@@ -16157,7 +16097,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.713440386744085</v>
+        <v>1.681595762246981</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.225743280069907</v>
@@ -16246,7 +16186,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.71390002243697</v>
+        <v>1.683580839209088</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.953610060859129</v>
@@ -16335,7 +16275,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.6923753108278</v>
+        <v>1.661938492289417</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.321753783469467</v>
@@ -16424,7 +16364,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.656772147985675</v>
+        <v>1.625548118499822</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.354912716989683</v>
@@ -16513,7 +16453,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.435640074864662</v>
+        <v>1.429719541018481</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.68621339955977</v>
@@ -16602,7 +16542,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.418819808229036</v>
+        <v>1.411976588414296</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.677568634155441</v>
@@ -16691,7 +16631,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.413309672151136</v>
+        <v>1.40826310690943</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.688727387537827</v>
@@ -16780,7 +16720,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.406090096254455</v>
+        <v>1.401431028637348</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.681968372522638</v>
@@ -16869,7 +16809,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.40789689919929</v>
+        <v>1.403068037096249</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.689692899619556</v>
@@ -16958,7 +16898,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.409671414728471</v>
+        <v>1.402803335661305</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.701115690730238</v>
@@ -17047,7 +16987,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.406372078757955</v>
+        <v>1.401522779785622</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.680413905636856</v>
@@ -17136,7 +17076,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.398954192586974</v>
+        <v>1.391362237947268</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.678322486846024</v>
@@ -17225,7 +17165,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.393183448246507</v>
+        <v>1.38839898898175</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.679158478693562</v>
@@ -17314,7 +17254,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.387117797849395</v>
+        <v>1.381923538198447</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.680066411591953</v>
@@ -17403,7 +17343,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.378765421830054</v>
+        <v>1.375720172352658</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.679213529826692</v>
@@ -17492,7 +17432,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.366682093140873</v>
+        <v>1.364024113575715</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.667843794241801</v>
@@ -17581,7 +17521,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.359029221937552</v>
+        <v>1.354638197465484</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.675750167444208</v>
@@ -17670,7 +17610,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.367405657178131</v>
+        <v>1.359003278966355</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.675030752421865</v>
@@ -17759,7 +17699,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.386459394104467</v>
+        <v>1.374339299154601</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.631345059006221</v>
@@ -17848,7 +17788,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.54364736452401</v>
+        <v>1.521444133194546</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.475364432023124</v>
@@ -17937,7 +17877,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.555817830130213</v>
+        <v>1.533423152131235</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.736369823924331</v>
@@ -18026,7 +17966,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563214294734078</v>
+        <v>1.535589867949321</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.841096331700952</v>
@@ -18115,7 +18055,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.563194181734049</v>
+        <v>1.536527431585661</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.00806421399271</v>
@@ -18204,7 +18144,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.549332587984631</v>
+        <v>1.522982196069613</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.961602391474514</v>
@@ -18293,7 +18233,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535896030189146</v>
+        <v>1.509811023388511</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.821057858773406</v>
@@ -18382,7 +18322,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.538999339483974</v>
+        <v>1.508068446749667</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.915305488037884</v>
@@ -18471,7 +18411,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535131105094017</v>
+        <v>1.505778303351727</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.005739459867712</v>
@@ -18560,7 +18500,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.52486525909111</v>
+        <v>1.490995738328789</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.973726729266094</v>
@@ -18649,7 +18589,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.530924353250184</v>
+        <v>1.497254319344322</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.590416341970517</v>
@@ -18738,7 +18678,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535140384264832</v>
+        <v>1.501298060896309</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.948135094156795</v>
@@ -18827,7 +18767,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.533205803500232</v>
+        <v>1.499525013148731</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.943880273911362</v>
@@ -18916,7 +18856,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.522195393901483</v>
+        <v>1.489359634995923</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.966218356827924</v>
@@ -19005,7 +18945,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.516664925867939</v>
+        <v>1.48549520750646</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.962218477839008</v>
@@ -19094,7 +19034,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.519562771969242</v>
+        <v>1.489594005593696</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.903123360912351</v>
@@ -19183,7 +19123,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.540432984491463</v>
+        <v>1.503133945614493</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.137210596971916</v>
@@ -19272,7 +19212,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.542654655753029</v>
+        <v>1.503795931602518</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.979657977151376</v>
@@ -19361,7 +19301,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.548471208319823</v>
+        <v>1.507043306330266</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.874479557464798</v>
@@ -19450,7 +19390,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.533960643962579</v>
+        <v>1.490483593050713</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.163872711078359</v>
@@ -19539,7 +19479,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.536789953028522</v>
+        <v>1.49550611168441</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.782664430457936</v>
@@ -19628,7 +19568,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.555258614914231</v>
+        <v>1.516246812180274</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.12283637810941</v>
@@ -19717,7 +19657,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.546721132133094</v>
+        <v>1.506146374831212</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.935832293992255</v>
@@ -19806,7 +19746,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.556862147922139</v>
+        <v>1.516234446673277</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.730430650360406</v>
@@ -20092,7 +20032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.588856140195221</v>
+        <v>1.563080248330599</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.929245727883261</v>
@@ -20181,7 +20121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.581868532527055</v>
+        <v>1.558582476243715</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.846556495358453</v>
@@ -20270,7 +20210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580122871068051</v>
+        <v>1.562470913378154</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.814837559920224</v>
@@ -20359,7 +20299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.585700079209875</v>
+        <v>1.56819041889916</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.776654760255599</v>
@@ -20448,7 +20388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.597120297491798</v>
+        <v>1.568096874725116</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.124451974596401</v>
@@ -20537,7 +20477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611780828107164</v>
+        <v>1.574628528423665</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.778344967557922</v>
@@ -20626,7 +20566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.590840062129509</v>
+        <v>1.547843892795069</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.619347770270232</v>
@@ -20715,7 +20655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606333539021297</v>
+        <v>1.561366348966057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.634618590566021</v>
@@ -20804,7 +20744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.607972185905041</v>
+        <v>1.566126541679075</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.705221089951554</v>
@@ -20893,7 +20833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.619184038459235</v>
+        <v>1.569130220063818</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.039919483479406</v>
@@ -20982,7 +20922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.625656756881639</v>
+        <v>1.569113811760484</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.840795047033864</v>
@@ -21071,7 +21011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.653089466035666</v>
+        <v>1.596518016658428</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.266050400127692</v>
@@ -21160,7 +21100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.67998604775588</v>
+        <v>1.624274525163304</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.469991122630053</v>
@@ -21249,7 +21189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68739563457538</v>
+        <v>1.631609173580518</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.373964560997356</v>
@@ -21338,7 +21278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.700368623297175</v>
+        <v>1.646519094761425</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.415307651722845</v>
@@ -21427,7 +21367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.681248482742998</v>
+        <v>1.635887809613322</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.038759120613054</v>
@@ -21516,7 +21456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.686699367041568</v>
+        <v>1.639210303525777</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.930942598114496</v>
@@ -21605,7 +21545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.686379974812186</v>
+        <v>1.636227879441438</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.105891976565332</v>
@@ -21694,7 +21634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.686373423812071</v>
+        <v>1.638138186617358</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.10489766464558</v>
@@ -21783,7 +21723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.693909982752069</v>
+        <v>1.649070669065688</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.996831123253444</v>
@@ -21872,7 +21812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.704052843330931</v>
+        <v>1.661493166415434</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.092250155592022</v>
@@ -21961,7 +21901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704402595423537</v>
+        <v>1.667777901958196</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.44144820520772</v>
@@ -22050,7 +21990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.702512209454816</v>
+        <v>1.666126170469745</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.488068439930728</v>
@@ -22139,7 +22079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.699147557312753</v>
+        <v>1.664825244894717</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.218314635419833</v>
@@ -22228,7 +22168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.701681194710313</v>
+        <v>1.668426120449393</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.047809028698299</v>
@@ -22317,7 +22257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.694465925545591</v>
+        <v>1.667091411265075</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.413387151482994</v>
@@ -22406,7 +22346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.679447094270992</v>
+        <v>1.65511016225246</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.46499923243244</v>
@@ -22495,7 +22435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.671809918734436</v>
+        <v>1.644062385310186</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.133275458037267</v>
@@ -22584,7 +22524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677561708139725</v>
+        <v>1.646581508967316</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.030589080416196</v>
@@ -22673,7 +22613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.685325506298551</v>
+        <v>1.651288025788362</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.87976924992707</v>
@@ -22762,7 +22702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696344013926855</v>
+        <v>1.660471192396851</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.434319256140027</v>
@@ -22851,7 +22791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698621255643068</v>
+        <v>1.660018270083619</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.497759147573688</v>
@@ -22940,7 +22880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.705974308997561</v>
+        <v>1.67224849345667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.521555052211464</v>
@@ -23029,7 +22969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.707012115944267</v>
+        <v>1.669838736063803</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.067107747892933</v>
@@ -23118,7 +23058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.69317487040647</v>
+        <v>1.658294585940806</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.384851824948146</v>
@@ -23207,7 +23147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69169852576565</v>
+        <v>1.656539066074625</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.40195257549854</v>
@@ -23296,7 +23236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.695275097369744</v>
+        <v>1.658283598348907</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.824631097772715</v>
@@ -23385,7 +23325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.701629427020537</v>
+        <v>1.66587185146674</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.934404479127145</v>
@@ -23474,7 +23414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706884336856724</v>
+        <v>1.669517874591109</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.871917373054893</v>
@@ -23563,7 +23503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.685345614882492</v>
+        <v>1.652514360207783</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.776057265926796</v>
@@ -23652,7 +23592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.699167214592305</v>
+        <v>1.667923447510838</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.347423713443899</v>
@@ -23741,7 +23681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.691284880747165</v>
+        <v>1.650311273156913</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.119885660628303</v>
@@ -23830,7 +23770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.678614824311215</v>
+        <v>1.645721096006016</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.051862254888233</v>
@@ -23919,7 +23859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.679556835589409</v>
+        <v>1.650399910382002</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.170791069760148</v>
@@ -24008,7 +23948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679872838281748</v>
+        <v>1.654418140972798</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.86631295486153</v>
@@ -24097,7 +24037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.695804055600207</v>
+        <v>1.670205914284717</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.236426177286849</v>
@@ -24186,7 +24126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.696424557059596</v>
+        <v>1.671280397034414</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.834770382855388</v>
@@ -24275,7 +24215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.693165340362609</v>
+        <v>1.666196103222894</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.949374419092686</v>
@@ -24364,7 +24304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.686987818161675</v>
+        <v>1.660929380129464</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.985397416906103</v>
@@ -24453,7 +24393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.68947687385435</v>
+        <v>1.663893432457</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.157972539035719</v>
@@ -24542,7 +24482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.687971702445181</v>
+        <v>1.662074734009091</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.25332222809155</v>
@@ -24631,7 +24571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.684527698247316</v>
+        <v>1.658675751822196</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.921754477622187</v>
@@ -24720,7 +24660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.690057114190385</v>
+        <v>1.663287277891856</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.24219711538669</v>
@@ -25006,7 +24946,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440067519682034</v>
+        <v>1.440195575938627</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.780564488532024</v>
@@ -25095,7 +25035,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434671734231566</v>
+        <v>1.435510461946741</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.471163576397994</v>
@@ -25184,7 +25124,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433033541880665</v>
+        <v>1.439453646335924</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.725245930890861</v>
@@ -25273,7 +25213,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.429927484760828</v>
+        <v>1.434607677367326</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.789690668683099</v>
@@ -25362,7 +25302,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427073183623208</v>
+        <v>1.433641833695862</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.822806639457811</v>
@@ -25451,7 +25391,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.425713379687407</v>
+        <v>1.436617172542943</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.77779290830693</v>
@@ -25540,7 +25480,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393789892228693</v>
+        <v>1.399240761521077</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.636838299402506</v>
@@ -25629,7 +25569,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.337204135096067</v>
+        <v>1.339533272257282</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.4339761593804</v>
@@ -25718,7 +25658,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.322798154917288</v>
+        <v>1.32655444675641</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.557098088452473</v>
@@ -25807,7 +25747,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.3316118267577</v>
+        <v>1.334013870994488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.35984875205038</v>
@@ -25896,7 +25836,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.334384066676344</v>
+        <v>1.335881975801936</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.494043726372789</v>
@@ -25985,7 +25925,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343110126955785</v>
+        <v>1.345133965924514</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.606546431577218</v>
@@ -26074,7 +26014,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.351702430793963</v>
+        <v>1.354708711637714</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.384980786166301</v>
@@ -26163,7 +26103,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.367224135700499</v>
+        <v>1.376731575117758</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.84872645909032</v>
@@ -26252,7 +26192,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.38242434355105</v>
+        <v>1.396040878614113</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.644862784897148</v>
@@ -26341,7 +26281,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.397810673742912</v>
+        <v>1.411946565450098</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.662490377508961</v>
@@ -26430,7 +26370,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.417069164932398</v>
+        <v>1.435211556804131</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.562700074785803</v>
@@ -26519,7 +26459,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.427203453206342</v>
+        <v>1.444024519684413</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.752598354071714</v>
@@ -26608,7 +26548,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.427389375173117</v>
+        <v>1.449663121927718</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.842944076961284</v>
@@ -26697,7 +26637,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.423945611559792</v>
+        <v>1.445720291780624</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.859384716815135</v>
@@ -26786,7 +26726,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.419826874166092</v>
+        <v>1.441063663366185</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.709810664670355</v>
@@ -26875,7 +26815,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.425958756946635</v>
+        <v>1.446993416748857</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.512867756407889</v>
@@ -26964,7 +26904,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.43422637125169</v>
+        <v>1.455977912290567</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.927031200730923</v>
@@ -27053,7 +26993,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.436232343728534</v>
+        <v>1.458444779550506</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.694738843025784</v>
@@ -27142,7 +27082,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.434293067198794</v>
+        <v>1.456722504714873</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.904101558139961</v>
@@ -27231,7 +27171,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.448026170709376</v>
+        <v>1.468395168071513</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.608309869004364</v>
@@ -27320,7 +27260,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.442036106417361</v>
+        <v>1.469362310001854</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.934066608232058</v>
@@ -27409,7 +27349,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.442250665847713</v>
+        <v>1.471986039449205</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.093173095042689</v>
@@ -27498,7 +27438,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.446316254938962</v>
+        <v>1.473052800928093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.854234131055471</v>
@@ -27587,7 +27527,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.446945873561204</v>
+        <v>1.467014472424647</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.710641103604501</v>
@@ -27676,7 +27616,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.420435439222403</v>
+        <v>1.439692327838299</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.366690491643845</v>
@@ -27765,7 +27705,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.404325833965883</v>
+        <v>1.420168290014177</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.442358521403923</v>
@@ -27854,7 +27794,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.397087233685197</v>
+        <v>1.41297329503362</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.368091351233808</v>
@@ -27943,7 +27883,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.410667935387812</v>
+        <v>1.425186136163199</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.614504665617983</v>
@@ -28032,7 +27972,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.403286503435558</v>
+        <v>1.413354286125627</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.550419911950369</v>
@@ -28121,7 +28061,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.40775654670029</v>
+        <v>1.411307493958105</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.526089158841502</v>
@@ -28210,7 +28150,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.411453528017672</v>
+        <v>1.415126594193234</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.535433516013819</v>
@@ -28299,7 +28239,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.41198894922179</v>
+        <v>1.417309308552066</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.519133196894652</v>
@@ -28388,7 +28328,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.421895536754198</v>
+        <v>1.427137742865344</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.48915010242766</v>
@@ -28477,7 +28417,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.431526911103826</v>
+        <v>1.433371504131128</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.568510688322272</v>
@@ -28566,7 +28506,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.431990152291475</v>
+        <v>1.430762840242883</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.420687972936899</v>
@@ -28655,7 +28595,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.431122387189552</v>
+        <v>1.423116786237034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.502968265706168</v>
@@ -28744,7 +28684,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.434405804015053</v>
+        <v>1.422205860405647</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.437042955837497</v>
@@ -28833,7 +28773,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.422566570410116</v>
+        <v>1.413503796939654</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.521725585197469</v>
@@ -28922,7 +28862,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.433999348482843</v>
+        <v>1.420306913285088</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.293016698239362</v>
@@ -29011,7 +28951,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.447551876175986</v>
+        <v>1.434443293233058</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.737126985469783</v>
@@ -29100,7 +29040,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.445359248088925</v>
+        <v>1.434630501706678</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.018644892103201</v>
@@ -29189,7 +29129,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.456953954498853</v>
+        <v>1.448976245000422</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.900001344283394</v>
@@ -29278,7 +29218,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.442742829647063</v>
+        <v>1.429218512551516</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.749557467566726</v>
@@ -29367,7 +29307,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.431958293306187</v>
+        <v>1.42316873732832</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.034458452309269</v>
@@ -29456,7 +29396,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.435130538659143</v>
+        <v>1.426424622383069</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.816734776104178</v>
@@ -29545,7 +29485,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.424171826999155</v>
+        <v>1.421904362586141</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.905129884707931</v>
@@ -29634,7 +29574,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.424394188175155</v>
+        <v>1.418465587038942</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.82321665173231</v>
@@ -29920,7 +29860,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.464578082973022</v>
+        <v>1.478035483570346</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.817599304231157</v>
@@ -30009,7 +29949,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.443193103803599</v>
+        <v>1.461517694697658</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.804519678905504</v>
@@ -30098,7 +30038,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445030274118712</v>
+        <v>1.465426262595996</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.661797741546052</v>
@@ -30187,7 +30127,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.455243927543093</v>
+        <v>1.473076225517335</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.788095282077423</v>
@@ -30276,7 +30216,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.480524320275205</v>
+        <v>1.495339863277926</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.561778796011157</v>
@@ -30365,7 +30305,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.494327895072995</v>
+        <v>1.507905586041032</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.539931151281837</v>
@@ -30454,7 +30394,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.490537438770689</v>
+        <v>1.501263254885983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.692984985236029</v>
@@ -30543,7 +30483,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.487764353425655</v>
+        <v>1.500398289283357</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.329290816123214</v>
@@ -30632,7 +30572,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.499971960946065</v>
+        <v>1.509593075375846</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.704886437965385</v>
@@ -30721,7 +30661,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522439094281331</v>
+        <v>1.527813811693288</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.397485996034739</v>
@@ -30810,7 +30750,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.539815296363706</v>
+        <v>1.546637114357438</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.833223819019965</v>
@@ -30899,7 +30839,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563249030259015</v>
+        <v>1.571493300012959</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.559725389796704</v>
@@ -30988,7 +30928,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618357243041867</v>
+        <v>1.623603365835981</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.658202716515148</v>
@@ -31077,7 +31017,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657431545472258</v>
+        <v>1.662012008272185</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.822369561623903</v>
@@ -31166,7 +31106,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.675061414423098</v>
+        <v>1.683329203500666</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.823196827719467</v>
@@ -31255,7 +31195,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.682660151109618</v>
+        <v>1.691102109449359</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.622829097971792</v>
@@ -31344,7 +31284,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705790832041019</v>
+        <v>1.712609027547912</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.802232123830974</v>
@@ -31433,7 +31373,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.706207119372452</v>
+        <v>1.713016747291128</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.885675800846248</v>
@@ -31522,7 +31462,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.742606014614761</v>
+        <v>1.744939687826589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.014711614839979</v>
@@ -31611,7 +31551,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.750563226253987</v>
+        <v>1.75559680562174</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.051055884202979</v>
@@ -31700,7 +31640,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.759530990491603</v>
+        <v>1.765923390933993</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.993116713438657</v>
@@ -31789,7 +31729,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.764658686320838</v>
+        <v>1.770403769268819</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.168269016837167</v>
@@ -31878,7 +31818,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.726356044596797</v>
+        <v>1.738820545349491</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.236119111815107</v>
@@ -31967,7 +31907,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.712518697642968</v>
+        <v>1.725289563053467</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.215969497534208</v>
@@ -32056,7 +31996,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.710684318495334</v>
+        <v>1.720093466358738</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.292235928930323</v>
@@ -32145,7 +32085,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.708362537003501</v>
+        <v>1.713549504804923</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.806601374998297</v>
@@ -32234,7 +32174,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.698145464874452</v>
+        <v>1.701104454692703</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.928881203735018</v>
@@ -32323,7 +32263,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674390483285874</v>
+        <v>1.680268111704805</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.126512194455068</v>
@@ -32412,7 +32352,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.670089235687549</v>
+        <v>1.673203377001937</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.934451953067525</v>
@@ -32501,7 +32441,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.680438080017852</v>
+        <v>1.675859920463056</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.069312668680191</v>
@@ -32590,7 +32530,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680503457312642</v>
+        <v>1.671936111423059</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.006398244101441</v>
@@ -32679,7 +32619,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.667152214415597</v>
+        <v>1.663475314393674</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.825063108428978</v>
@@ -32768,7 +32708,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.664529823249846</v>
+        <v>1.659743368777714</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.918899864552724</v>
@@ -32857,7 +32797,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.655736764211033</v>
+        <v>1.653278898575467</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.072580126940001</v>
@@ -32946,7 +32886,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.641696291849504</v>
+        <v>1.637623966277612</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.946274242819722</v>
@@ -33035,7 +32975,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623488232186601</v>
+        <v>1.617784183230058</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.973590917993353</v>
@@ -33124,7 +33064,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.613111801705438</v>
+        <v>1.610598861657611</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.928936856396989</v>
@@ -33213,7 +33153,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.636915666584713</v>
+        <v>1.631523128226127</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.729350547351197</v>
@@ -33302,7 +33242,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.634566017297242</v>
+        <v>1.632055834816778</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.11428812025573</v>
@@ -33391,7 +33331,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646766099842053</v>
+        <v>1.642299930372765</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.646970849041448</v>
@@ -33480,7 +33420,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648812609585344</v>
+        <v>1.647808947914229</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.864255976480586</v>
@@ -33569,7 +33509,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.649044126649304</v>
+        <v>1.648613577205202</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.803394946639668</v>
@@ -33658,7 +33598,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663047871652738</v>
+        <v>1.657792028543233</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.136979324728342</v>
@@ -33747,7 +33687,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.674097284889156</v>
+        <v>1.669354757462904</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.815666234948486</v>
@@ -33836,7 +33776,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676523071816354</v>
+        <v>1.675016484979684</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.678369259727371</v>
@@ -33925,7 +33865,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.690727856350816</v>
+        <v>1.687217790431229</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.805046154257707</v>
@@ -34014,7 +33954,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.706997056059031</v>
+        <v>1.695077407629236</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.701336974188721</v>
@@ -34103,7 +34043,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.725292396310483</v>
+        <v>1.709740944841228</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.643727405443885</v>
@@ -34192,7 +34132,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.725216713926212</v>
+        <v>1.710800516745116</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.077260561335443</v>
@@ -34281,7 +34221,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.723891855774865</v>
+        <v>1.710968023888206</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.806417021255263</v>
@@ -34370,7 +34310,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.752198228625897</v>
+        <v>1.732077950407102</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.92248814515177</v>
@@ -34459,7 +34399,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.743889198423465</v>
+        <v>1.721252350743337</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.830845130261923</v>
@@ -34548,7 +34488,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.764017585933445</v>
+        <v>1.734679390956618</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.768443145836322</v>
